--- a/Anotações.xlsx
+++ b/Anotações.xlsx
@@ -1,47 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedrootavio_prestserv_petrobras_com_br1/Documents/Área de Trabalho/_PIV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\Meus  projetos\TCC-PIV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33C17AE-5DC3-4CD4-B486-6D3008C43BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF516AA7-D9CB-4332-B572-67EAA918CABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="43380" yWindow="675" windowWidth="8220" windowHeight="15450" tabRatio="896" activeTab="2" xr2:uid="{1A9FFD6D-C9C1-438C-A886-F2779451949A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="896" activeTab="3" xr2:uid="{1A9FFD6D-C9C1-438C-A886-F2779451949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolução" sheetId="3" r:id="rId1"/>
-    <sheet name="TELAS" sheetId="19" r:id="rId2"/>
-    <sheet name="dados" sheetId="2" r:id="rId3"/>
-    <sheet name="PI005_A2" sheetId="23" r:id="rId4"/>
-    <sheet name="Servidor" sheetId="26" r:id="rId5"/>
-    <sheet name="Links de referência" sheetId="1" r:id="rId6"/>
+    <sheet name="Problemas" sheetId="27" r:id="rId2"/>
+    <sheet name="TELAS" sheetId="19" r:id="rId3"/>
+    <sheet name="dados" sheetId="2" r:id="rId4"/>
+    <sheet name="PI005_A2" sheetId="23" r:id="rId5"/>
+    <sheet name="Servidor" sheetId="26" r:id="rId6"/>
+    <sheet name="Links de referência" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="355">
   <si>
     <t>ESP8266 - NODEMCU</t>
   </si>
@@ -664,9 +654,6 @@
     <t>https://randomnerdtutorials.com/esp8266-nodemcu-hc-sr04-ultrasonic-arduino/</t>
   </si>
   <si>
-    <t>HC-SR04</t>
-  </si>
-  <si>
     <r>
       <t>#include</t>
     </r>
@@ -6756,12 +6743,120 @@
   <si>
     <t>ATENÇÃO!!! Avaliar como hospedar as páginas na nuvem (máquina pessoal como servidor ou serviço na nuvem)</t>
   </si>
+  <si>
+    <t>https://portal.vidadesilicio.com.br/hc-sr04-sensor-ultrassonico/</t>
+  </si>
+  <si>
+    <t>https://forum.arduino.cc/t/hc-sr04-and-esp8266-power-problem/1189793</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Sucesso na obtenção de dados de temperatura (field 1)</t>
+  </si>
+  <si>
+    <t>. Implementar padrão de escala em:</t>
+  </si>
+  <si>
+    <t>- Horas</t>
+  </si>
+  <si>
+    <t>- Dias</t>
+  </si>
+  <si>
+    <t>- Semanas</t>
+  </si>
+  <si>
+    <t>. Implementar para o nível</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Diversas atualizações no frontend</t>
+  </si>
+  <si>
+    <t>. Implementadas mensagens de orientação nos elementos</t>
+  </si>
+  <si>
+    <t>. Arrendodar para dois digitos a indicação</t>
+  </si>
+  <si>
+    <t>. Ajustar o retorno de status da API, implementando variável de último estado válido</t>
+  </si>
+  <si>
+    <t>. Implementar a escrita individual para os valores do atuomatismo</t>
+  </si>
+  <si>
+    <t>Tela comando</t>
+  </si>
+  <si>
+    <t>Tela dados</t>
+  </si>
+  <si>
+    <t>. Implementar os resultados</t>
+  </si>
+  <si>
+    <t>. Ajustar gráfico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. </t>
+  </si>
+  <si>
+    <t>Implementação sensores</t>
+  </si>
+  <si>
+    <t>. Sensor de temperatura OK</t>
+  </si>
+  <si>
+    <t>. Sensor de nível funcionou, porém queimou em função do regulador de tensão.</t>
+  </si>
+  <si>
+    <t>Atualização Hardware</t>
+  </si>
+  <si>
+    <t>. Regulador de tensão - após montagem na caixa só dispara 12Vcc nas saídas</t>
+  </si>
+  <si>
+    <t>. protoboards instaladas provisoriamente na caixa e.</t>
+  </si>
+  <si>
+    <t>. Necessário instalar os relés em paralelo com os led (saídas para bomba e aquecedor)</t>
+  </si>
+  <si>
+    <t>`- Implementar a estrutura no tanque</t>
+  </si>
+  <si>
+    <t>`- Fazer diagrama de interligação</t>
+  </si>
+  <si>
+    <t>`- Fazer desenho layout montagem</t>
+  </si>
+  <si>
+    <t>. Implementar intertravamento de modo que seja permitido a alteração para automático com os parâmetros escitos no thingspeak</t>
+  </si>
+  <si>
+    <t>MB-102</t>
+  </si>
+  <si>
+    <t>https://components101.com/switches/5v-dual-channel-relay-module-pinout-features-applications-working-datasheet</t>
+  </si>
+  <si>
+    <t>https://raydiy.de/en/power-supply-for-arduino-and-esp32-operate-microcontroller-with-pc-power-supply-led-power-supply-unit/</t>
+  </si>
+  <si>
+    <t>Serve para o ESP-8266</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6927,6 +7022,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -7080,7 +7183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7090,6 +7193,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7098,9 +7205,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -7123,13 +7231,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7141,32 +7252,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7208,13 +7328,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7223,6 +7348,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -7242,6 +7368,110 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D1019A-12E5-49CB-8747-D3BFD3CDB2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7726680" y="1950720"/>
+          <a:ext cx="5013960" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Atenção!!!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>O thingspeak grátis permite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> apenas uma intervenção a cada 15s, assim todo comando / informação deve ser enviado individualmente.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>. Pensar em uma maneira de desabilitar a página neste intervalo de tempo e habilitar apenas após</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> 15s.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7334,7 +7564,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7747,6 +7977,348 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>623817</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>32498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>291023</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11" descr="Fonte Ajustável para Protoboard MB102 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3CDB19-F13E-498E-A36E-A307A8934DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13253967" y="12529298"/>
+          <a:ext cx="2334206" cy="2298326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>2492</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>163390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E83C83C-79C8-407A-865E-34B96FAC9D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16315764" y="13384306"/>
+          <a:ext cx="5820587" cy="2467319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>498352</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>41556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>100240</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>178480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12" descr="https://components101.com/sites/default/files/component_pin/Dual-Channel-Relay-Module-Pinout.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACE83F-92EC-400F-83D6-5E918BA188DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13092134" y="20296901"/>
+          <a:ext cx="3591997" cy="2478342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>317839</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>162876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3FB457-8A4B-479C-89DC-B84DA1796679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12911621" y="17005233"/>
+          <a:ext cx="4101760" cy="2872661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>648719</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>176850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>31848</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>162179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F61EBF-EF46-4306-AAD5-479B82B53254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17897628" y="20252086"/>
+          <a:ext cx="2708220" cy="2728529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>526360</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>538827</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24D55CC-C228-4A64-8711-F0178CB3CDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17110251" y="17082656"/>
+          <a:ext cx="4002576" cy="2701635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27711</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9711D5-C2C0-4F9B-B042-0EFE325785BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="263237" y="19645745"/>
+          <a:ext cx="5084619" cy="3736302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8067,1573 +8639,1624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272C5EE4-895D-4CDE-9CA6-E2FD39887CEB}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="43" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="43"/>
+    <col min="1" max="1" width="2.59765625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="1.69921875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="1.8984375" style="50" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+    <row r="3" spans="1:23">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45" t="s">
+    <row r="6" spans="1:23">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="7" spans="1:23">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="50" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:23">
+      <c r="A10" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="C11" s="52" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
+    <row r="12" spans="1:23">
+      <c r="C12" s="50" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="43" t="s">
+    <row r="13" spans="1:23">
+      <c r="A13" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="62" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="C36" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="C37" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C40" s="45"/>
-      <c r="D40" s="55" t="s">
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="52"/>
+      <c r="C17" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="43" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="45" t="s">
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="52"/>
+      <c r="C18" s="52" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="45" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C47" s="45" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="45"/>
-      <c r="C50" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="45"/>
-      <c r="C51" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="B23" s="50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="B24" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="B25" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="B26" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="B27" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="B28" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="B30" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="B31" s="50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="B32" s="50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="52"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" s="52"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="64"/>
+      <c r="B42" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="64"/>
+      <c r="B43" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="64"/>
+      <c r="B44" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="64"/>
+      <c r="B45" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="64"/>
+      <c r="B46" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="50" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D40:T42"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3843DA9D-A47F-42DD-8648-F3AF22E69576}">
+  <dimension ref="B2:T36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="1.296875" customWidth="1"/>
+    <col min="2" max="2" width="2.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="B2" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="2:20" ht="13.8" customHeight="1">
+      <c r="B4" s="52"/>
+      <c r="C4" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="50"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="50"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="50"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="50"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="50"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:S6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5662CF2F-C597-4142-B5A6-A1A36896CB7A}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="22.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="18"/>
-    <col min="7" max="7" width="3.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="18" customWidth="1"/>
-    <col min="11" max="13" width="10.7109375" style="18" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.59765625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="1.69921875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="21"/>
+    <col min="7" max="7" width="3.09765625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="20.69921875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="1.69921875" style="21" customWidth="1"/>
+    <col min="11" max="13" width="10.69921875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="3.8984375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="2.296875" style="46" customWidth="1"/>
+    <col min="16" max="16" width="4.09765625" style="21" customWidth="1"/>
+    <col min="17" max="16384" width="10.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="Q2" s="40" t="s">
+      <c r="C2" s="48"/>
+      <c r="Q2" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-    </row>
-    <row r="4" spans="2:20" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="2:20" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="57" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.6" customHeight="1" thickBot="1"/>
+    <row r="5" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="2:20" ht="4.8" customHeight="1">
+      <c r="B6" s="25"/>
+      <c r="C6" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="23"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="57" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="22"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="2:20" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="24" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="2:20" ht="28.2" customHeight="1">
+      <c r="B8" s="25"/>
+      <c r="C8" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="33" t="s">
+      <c r="F8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="30">
+      <c r="J8" s="37"/>
+      <c r="K8" s="34">
         <v>180</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="2:20" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="2:20" ht="8.4" customHeight="1">
+      <c r="B9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B10" s="25"/>
+      <c r="C10" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="33" t="s">
+      <c r="F10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="30">
+      <c r="J10" s="37"/>
+      <c r="K10" s="34">
         <v>30</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="2:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="26" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.6" customHeight="1">
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B12" s="25"/>
+      <c r="C12" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="33" t="s">
+      <c r="F12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="30">
+      <c r="J12" s="37"/>
+      <c r="K12" s="34">
         <v>20</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="26" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B13" s="25"/>
+      <c r="C13" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="26" t="s">
+      <c r="F13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="18" t="s">
+      <c r="J14" s="30"/>
+      <c r="K14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="56" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="26" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="2:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="26" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="2:20" ht="22.2" customHeight="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="34" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="2:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="19" spans="2:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:13" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="57" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="2:16" ht="22.2" customHeight="1" thickBot="1">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="2:16" ht="22.2" customHeight="1">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="2:16" ht="22.2" customHeight="1" thickBot="1"/>
+    <row r="20" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="2:16" ht="4.8" customHeight="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="H22" s="32" t="s">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="H22" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="25" t="s">
+    <row r="23" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="H23" s="32" t="s">
+      <c r="F23" s="26"/>
+      <c r="H23" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="2:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="23"/>
-      <c r="H25" s="32" t="s">
+    <row r="24" spans="2:16" ht="22.2" customHeight="1" thickBot="1">
+      <c r="B24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="2:16" ht="22.2" customHeight="1" thickBot="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="26"/>
+      <c r="H25" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32" t="s">
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="E26" s="18" t="s">
+    <row r="26" spans="2:16" ht="15.6" customHeight="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="H26" s="32" t="s">
+      <c r="F26" s="26"/>
+      <c r="H26" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32" t="s">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="H27" s="32" t="s">
+    <row r="27" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="H27" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32" t="s">
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="26" t="s">
+    <row r="28" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B28" s="25"/>
+      <c r="C28" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="H28" s="32" t="s">
+      <c r="F28" s="26"/>
+      <c r="H28" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32" t="s">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="26" t="s">
+    <row r="29" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B29" s="25"/>
+      <c r="C29" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32" t="s">
+      <c r="F29" s="26"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="56" t="s">
+    <row r="30" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B30" s="25"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="2:16" ht="22.2" customHeight="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="23"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="2:13" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="26"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="2:16" ht="22.2" customHeight="1" thickBot="1">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9649,209 +10272,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE199072-3796-4822-8475-BE7830E0C19A}">
-  <dimension ref="A2:Z74"/>
+  <dimension ref="A2:Z112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q119" sqref="Q119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="17.399999999999999">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="Z3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="9:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="W26" s="48" t="s">
+    <row r="26" spans="9:26" ht="17.399999999999999">
+      <c r="W26" s="55" t="s">
         <v>164</v>
       </c>
       <c r="Z26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="9:26" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="9:26">
       <c r="I27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Z27" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:26">
       <c r="I28" t="s">
         <v>95</v>
       </c>
       <c r="J28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="Z28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="9:26">
       <c r="I29" t="s">
         <v>84</v>
       </c>
       <c r="J29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="I31" s="58" t="s">
+      <c r="Z29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="9:26" ht="14.4" thickBot="1"/>
+    <row r="31" spans="9:26">
+      <c r="I31" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="11"/>
-    </row>
-    <row r="32" spans="9:26" x14ac:dyDescent="0.25">
-      <c r="I32" s="12" t="s">
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13"/>
+    </row>
+    <row r="32" spans="9:26">
+      <c r="I32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="U32" s="14"/>
-    </row>
-    <row r="33" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I33" s="12" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="9:21">
+      <c r="I33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="U33" s="14"/>
-    </row>
-    <row r="34" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I34" s="12" t="s">
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="9:21">
+      <c r="I34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="U34" s="14"/>
-    </row>
-    <row r="35" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I36" s="12" t="s">
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="9:21">
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="9:21">
+      <c r="I36" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="U36" s="14"/>
-    </row>
-    <row r="37" spans="9:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="15" t="s">
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="9:21" ht="14.4" thickBot="1">
+      <c r="I37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="17"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="20"/>
+    </row>
+    <row r="74" spans="9:9">
       <c r="I74" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="19:20">
+      <c r="T87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="19:20">
+      <c r="S93" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17.399999999999999">
+      <c r="I112" s="70" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I31:N31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Z27" r:id="rId1" xr:uid="{B918E269-1BC5-46C5-8127-2D6CB8595C41}"/>
+    <hyperlink ref="Z3" r:id="rId2" xr:uid="{DC6A643A-5BE8-4EB9-870A-2735D66879FD}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373PÚBLICA</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF806374-C006-4CAA-A186-B52BAD2C3D52}">
   <dimension ref="A1:A157"/>
   <sheetViews>
@@ -9859,739 +10542,739 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="36"/>
+    <col min="1" max="16384" width="8.796875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="56" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="56" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+    <row r="7" spans="1:1" ht="13.8">
+      <c r="A7" s="57"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="59" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+    <row r="11" spans="1:1" ht="13.8">
+      <c r="A11" s="57"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="59" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="59" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="59" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="59" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="59" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+    <row r="18" spans="1:1" ht="13.8">
+      <c r="A18" s="57"/>
+    </row>
+    <row r="19" spans="1:1" ht="13.8">
+      <c r="A19" s="57"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="58" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="56" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="56" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="56" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="56" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+    <row r="26" spans="1:1" ht="13.8">
+      <c r="A26" s="57"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="58" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="60" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+    <row r="30" spans="1:1" ht="13.8">
+      <c r="A30" s="57"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+    <row r="33" spans="1:1" ht="13.8">
+      <c r="A33" s="57"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="60" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="60" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+    <row r="37" spans="1:1" ht="13.8">
+      <c r="A37" s="57"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+    <row r="39" spans="1:1" ht="13.8">
+      <c r="A39" s="57"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="59" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+    <row r="41" spans="1:1" ht="13.8">
+      <c r="A41" s="57"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="60" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="60" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53" t="s">
+    <row r="44" spans="1:1" ht="13.8">
+      <c r="A44" s="57"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="60" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+    <row r="49" spans="1:1" ht="13.8">
+      <c r="A49" s="57"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="60" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="60" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+    <row r="52" spans="1:1" ht="13.8">
+      <c r="A52" s="57"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="58" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="60" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="60" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="58" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="60" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="60" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="60" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="60" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="53" t="s">
+    <row r="63" spans="1:1" ht="13.8">
+      <c r="A63" s="57"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="60" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="53" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="53" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="13.8">
+      <c r="A67" s="57"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="58" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="13.8">
+      <c r="A75" s="57"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="53" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="58" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51" t="s">
+    <row r="81" spans="1:1" ht="13.8">
+      <c r="A81" s="57"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="51" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52" t="s">
+    <row r="84" spans="1:1" ht="13.8">
+      <c r="A84" s="57"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="58" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="51" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="53" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="60" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="53" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="53" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="60" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="53" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="60" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="53" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="13.8">
+      <c r="A92" s="57"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="58" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="51" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="60" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="53" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="60" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="53" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="58" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="51" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="60" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="53" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="60" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="53" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="53" t="s">
+    <row r="101" spans="1:1" ht="13.8">
+      <c r="A101" s="57"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="58" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="50"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="51" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="60" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="53" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="53" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="60" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="53" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="60" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="53" t="s">
+    <row r="107" spans="1:1" ht="13.8">
+      <c r="A107" s="57"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="58" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="51" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="60" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="53" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="60" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="53" t="s">
+    <row r="111" spans="1:1" ht="13.8">
+      <c r="A111" s="57"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="60" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="50"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="53" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="60" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="53" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="60" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="53" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="60" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="53" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="60" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="53" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="13.8">
+      <c r="A118" s="57"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="58" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="50"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="51" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="58" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="51" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="59" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="60" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="53" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="60" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="53" t="s">
+    <row r="124" spans="1:1" ht="13.8">
+      <c r="A124" s="57"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="60" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="50"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="53" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="60" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="53" t="s">
+    <row r="127" spans="1:1" ht="13.8">
+      <c r="A127" s="57"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="58" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="60" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="53" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="60" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="53" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="60" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="53" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="60" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="53" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="60" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="53" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="60" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="53" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="60" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="53" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="60" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="53" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="53" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="60" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="53" t="s">
+    <row r="139" spans="1:1" ht="13.8">
+      <c r="A139" s="57"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="58" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="50"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="51" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="60" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="53" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="60" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="53" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="60" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="53" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="60" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="53" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="53" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="60" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="53" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="60" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="53" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="60" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="53" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="53" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="60" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="53" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="60" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="53" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="60" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="53" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="13.8">
+      <c r="A155" s="57"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="60" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="50"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="53" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="54" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="61" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10600,7 +11283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1EFC28-03AD-49B3-A34B-C774469066CB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -10608,14 +11291,14 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>147</v>
       </c>
@@ -10629,21 +11312,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD457A7-FD2E-4C2D-95B2-ABAD37EB7802}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -10651,12 +11334,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="C2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -10666,12 +11349,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -10680,12 +11363,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -10694,12 +11377,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -10708,45 +11391,45 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="9" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="C14" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>128</v>
       </c>
@@ -10755,22 +11438,22 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="C16" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="C17" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="C18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -10778,32 +11461,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="C21" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -10811,37 +11494,37 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="C31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
@@ -10849,7 +11532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
@@ -10857,22 +11540,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="C34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="C35" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="C36" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="C37" s="3" t="s">
         <v>28</v>
       </c>
@@ -10880,7 +11563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="5" t="s">
         <v>47</v>
       </c>
@@ -10889,23 +11572,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="C40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="C41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:17">
+      <c r="A42" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B42" t="s">
@@ -10916,7 +11599,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="B43" t="s">
         <v>67</v>
       </c>
@@ -10924,8 +11607,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:17">
+      <c r="A44" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -10937,9 +11620,13 @@
       <c r="L44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="7"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="C45" s="4" t="s">
         <v>34</v>
       </c>
@@ -10951,7 +11638,7 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10962,7 +11649,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="C47" s="4" t="s">
         <v>71</v>
       </c>
@@ -10970,7 +11657,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="C48" s="3" t="s">
         <v>45</v>
       </c>
@@ -10978,7 +11665,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="C49" s="4" t="s">
         <v>44</v>
       </c>
@@ -10986,14 +11673,14 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="C50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -11007,7 +11694,7 @@
       </c>
       <c r="M51" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
@@ -11015,17 +11702,17 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="C54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="C55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
@@ -11033,13 +11720,13 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="C60" t="s">
         <v>35</v>
       </c>
@@ -11050,18 +11737,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="C62" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="C63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="C66" s="1" t="s">
         <v>74</v>
       </c>
@@ -11073,65 +11760,65 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:10" ht="21">
+      <c r="A74" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="C85" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="C86" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="C87" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="C89" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="C90" t="s">
         <v>126</v>
       </c>
